--- a/outputs/c/_onion_both.xlsx
+++ b/outputs/c/_onion_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="208">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -639,7 +636,13 @@
     <t>package</t>
   </si>
   <si>
-    <t>uniq</t>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
   <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1048576"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,22 +1491,22 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" t="s">
         <v>198</v>
       </c>
-      <c r="N1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" t="s">
-        <v>199</v>
-      </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
@@ -1512,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -1530,10 +1533,10 @@
         <v>6</v>
       </c>
       <c r="AA1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB1" t="s">
         <v>198</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1544,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -1556,19 +1559,19 @@
         <v>546</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1583,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1598,16 +1601,16 @@
         <v>276</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB2" t="s">
         <v>200</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1618,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1630,22 +1633,22 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1660,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1675,16 +1678,16 @@
         <v>46</v>
       </c>
       <c r="Y3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" t="s">
-        <v>17</v>
-      </c>
       <c r="AA3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1695,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>67</v>
@@ -1707,22 +1710,22 @@
         <v>820</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1737,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1752,16 +1755,16 @@
         <v>820</v>
       </c>
       <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" t="s">
-        <v>21</v>
-      </c>
       <c r="AA4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" t="s">
         <v>200</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1772,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -1784,22 +1787,22 @@
         <v>250</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1814,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1829,16 +1832,16 @@
         <v>130</v>
       </c>
       <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
         <v>81</v>
       </c>
-      <c r="Z5" t="s">
-        <v>82</v>
-      </c>
       <c r="AA5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1849,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -1861,19 +1864,19 @@
         <v>124</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1888,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="T6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1903,16 +1906,16 @@
         <v>102</v>
       </c>
       <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" t="s">
-        <v>85</v>
-      </c>
       <c r="AA6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1923,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>36</v>
@@ -1935,22 +1938,22 @@
         <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1965,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="T7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1980,16 +1983,16 @@
         <v>232</v>
       </c>
       <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z7" t="s">
         <v>94</v>
       </c>
-      <c r="Z7" t="s">
-        <v>95</v>
-      </c>
       <c r="AA7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -2000,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>122</v>
@@ -2012,19 +2015,19 @@
         <v>1432</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2039,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2054,16 +2057,16 @@
         <v>1354</v>
       </c>
       <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
-        <v>103</v>
-      </c>
       <c r="AA8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2074,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>336</v>
@@ -2086,22 +2089,22 @@
         <v>3582</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2116,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="T9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2131,16 +2134,16 @@
         <v>54</v>
       </c>
       <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" t="s">
         <v>108</v>
       </c>
-      <c r="Z9" t="s">
-        <v>109</v>
-      </c>
       <c r="AA9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -2151,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>374</v>
@@ -2163,22 +2166,22 @@
         <v>2208</v>
       </c>
       <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2193,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="T10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2208,16 +2211,16 @@
         <v>44</v>
       </c>
       <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z10" t="s">
         <v>122</v>
       </c>
-      <c r="Z10" t="s">
-        <v>123</v>
-      </c>
       <c r="AA10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB10" t="s">
         <v>204</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -2228,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>33</v>
@@ -2240,19 +2243,19 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2267,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2282,16 +2285,16 @@
         <v>176</v>
       </c>
       <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z11" t="s">
         <v>130</v>
       </c>
-      <c r="Z11" t="s">
-        <v>131</v>
-      </c>
       <c r="AA11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB11" t="s">
         <v>200</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2302,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2314,22 +2317,22 @@
         <v>122</v>
       </c>
       <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2344,7 +2347,7 @@
         <v>17</v>
       </c>
       <c r="T12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2359,16 +2362,16 @@
         <v>122</v>
       </c>
       <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" t="s">
-        <v>41</v>
-      </c>
       <c r="AA12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB12" t="s">
         <v>200</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -2379,7 +2382,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>208</v>
@@ -2391,19 +2394,19 @@
         <v>1590</v>
       </c>
       <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
       <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2418,7 +2421,7 @@
         <v>19</v>
       </c>
       <c r="T13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2433,16 +2436,16 @@
         <v>442</v>
       </c>
       <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z13" t="s">
         <v>139</v>
       </c>
-      <c r="Z13" t="s">
-        <v>140</v>
-      </c>
       <c r="AA13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB13" t="s">
         <v>200</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2453,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>82</v>
@@ -2465,19 +2468,19 @@
         <v>954</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2492,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2507,16 +2510,16 @@
         <v>500</v>
       </c>
       <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" t="s">
         <v>145</v>
       </c>
-      <c r="Z14" t="s">
-        <v>146</v>
-      </c>
       <c r="AA14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB14" t="s">
         <v>200</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -2527,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>81</v>
@@ -2539,22 +2542,22 @@
         <v>1136</v>
       </c>
       <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2569,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2584,16 +2587,16 @@
         <v>84</v>
       </c>
       <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z15" t="s">
         <v>151</v>
       </c>
-      <c r="Z15" t="s">
-        <v>152</v>
-      </c>
       <c r="AA15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB15" t="s">
         <v>200</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -2604,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -2616,19 +2619,19 @@
         <v>1210</v>
       </c>
       <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2643,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2658,16 +2661,16 @@
         <v>1132</v>
       </c>
       <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z16" t="s">
         <v>160</v>
       </c>
-      <c r="Z16" t="s">
-        <v>161</v>
-      </c>
       <c r="AA16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB16" t="s">
         <v>200</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -2678,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>106</v>
@@ -2690,19 +2693,19 @@
         <v>776</v>
       </c>
       <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
         <v>52</v>
       </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2717,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2732,16 +2735,16 @@
         <v>450</v>
       </c>
       <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z17" t="s">
         <v>166</v>
       </c>
-      <c r="Z17" t="s">
-        <v>167</v>
-      </c>
       <c r="AA17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -2752,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>241</v>
@@ -2764,19 +2767,19 @@
         <v>2576</v>
       </c>
       <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2791,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="T18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2806,16 +2809,16 @@
         <v>72</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -2826,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>162</v>
@@ -2838,19 +2841,19 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2865,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2880,16 +2883,16 @@
         <v>1900</v>
       </c>
       <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z19" t="s">
         <v>179</v>
       </c>
-      <c r="Z19" t="s">
-        <v>180</v>
-      </c>
       <c r="AA19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -2900,7 +2903,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2912,19 +2915,19 @@
         <v>72</v>
       </c>
       <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2939,7 +2942,7 @@
         <v>14</v>
       </c>
       <c r="T20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2954,16 +2957,16 @@
         <v>72</v>
       </c>
       <c r="Y20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" t="s">
-        <v>59</v>
-      </c>
       <c r="AA20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB20" t="s">
         <v>200</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -2971,25 +2974,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -3000,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>23</v>
@@ -3012,10 +3015,10 @@
         <v>276</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -3026,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -3038,10 +3041,10 @@
         <v>528</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -3052,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>41</v>
@@ -3064,10 +3067,10 @@
         <v>652</v>
       </c>
       <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
         <v>63</v>
-      </c>
-      <c r="H24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -3078,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -3090,10 +3093,10 @@
         <v>1014</v>
       </c>
       <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
         <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -3104,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>66</v>
@@ -3116,10 +3119,10 @@
         <v>1214</v>
       </c>
       <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -3130,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>137</v>
@@ -3142,10 +3145,10 @@
         <v>2116</v>
       </c>
       <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
         <v>69</v>
-      </c>
-      <c r="H27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -3156,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -3168,10 +3171,10 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
         <v>71</v>
-      </c>
-      <c r="H28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -3182,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>23</v>
@@ -3194,10 +3197,10 @@
         <v>138</v>
       </c>
       <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
         <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3208,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>58</v>
@@ -3220,10 +3223,10 @@
         <v>728</v>
       </c>
       <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
         <v>75</v>
-      </c>
-      <c r="H30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -3234,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>99</v>
@@ -3246,10 +3249,10 @@
         <v>1004</v>
       </c>
       <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
         <v>77</v>
-      </c>
-      <c r="H31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -3260,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>78</v>
@@ -3272,10 +3275,10 @@
         <v>1000</v>
       </c>
       <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
         <v>79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,7 +3289,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -3298,10 +3301,10 @@
         <v>130</v>
       </c>
       <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
         <v>81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3312,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -3324,10 +3327,10 @@
         <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -3350,10 +3353,10 @@
         <v>102</v>
       </c>
       <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
         <v>84</v>
-      </c>
-      <c r="H35" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3364,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>29</v>
@@ -3376,10 +3379,10 @@
         <v>260</v>
       </c>
       <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
         <v>86</v>
-      </c>
-      <c r="H36" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3390,7 +3393,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>38</v>
@@ -3402,10 +3405,10 @@
         <v>418</v>
       </c>
       <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
         <v>88</v>
-      </c>
-      <c r="H37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,7 +3419,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>124</v>
@@ -3428,10 +3431,10 @@
         <v>904</v>
       </c>
       <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
         <v>90</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3442,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>154</v>
@@ -3454,10 +3457,10 @@
         <v>1112</v>
       </c>
       <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
         <v>92</v>
-      </c>
-      <c r="H39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3468,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>31</v>
@@ -3480,10 +3483,10 @@
         <v>232</v>
       </c>
       <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
         <v>94</v>
-      </c>
-      <c r="H40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3494,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -3506,10 +3509,10 @@
         <v>304</v>
       </c>
       <c r="G41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
         <v>96</v>
-      </c>
-      <c r="H41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3520,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>43</v>
@@ -3532,10 +3535,10 @@
         <v>356</v>
       </c>
       <c r="G42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" t="s">
         <v>98</v>
-      </c>
-      <c r="H42" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3546,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>137</v>
@@ -3558,10 +3561,10 @@
         <v>1070</v>
       </c>
       <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" t="s">
         <v>100</v>
-      </c>
-      <c r="H43" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,7 +3575,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>111</v>
@@ -3584,10 +3587,10 @@
         <v>1354</v>
       </c>
       <c r="G44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" t="s">
         <v>102</v>
-      </c>
-      <c r="H44" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,7 +3601,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>127</v>
@@ -3610,10 +3613,10 @@
         <v>1460</v>
       </c>
       <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" t="s">
         <v>104</v>
-      </c>
-      <c r="H45" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3624,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>146</v>
@@ -3636,10 +3639,10 @@
         <v>1646</v>
       </c>
       <c r="G46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" t="s">
         <v>106</v>
-      </c>
-      <c r="H46" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3650,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -3662,10 +3665,10 @@
         <v>54</v>
       </c>
       <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
         <v>108</v>
-      </c>
-      <c r="H47" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3676,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>76</v>
@@ -3688,10 +3691,10 @@
         <v>860</v>
       </c>
       <c r="G48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" t="s">
         <v>110</v>
-      </c>
-      <c r="H48" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3702,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>111</v>
@@ -3714,10 +3717,10 @@
         <v>1296</v>
       </c>
       <c r="G49" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" t="s">
         <v>112</v>
-      </c>
-      <c r="H49" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3728,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>134</v>
@@ -3740,10 +3743,10 @@
         <v>1492</v>
       </c>
       <c r="G50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" t="s">
         <v>114</v>
-      </c>
-      <c r="H50" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3754,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>137</v>
@@ -3766,10 +3769,10 @@
         <v>1502</v>
       </c>
       <c r="G51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" t="s">
         <v>116</v>
-      </c>
-      <c r="H51" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3780,7 +3783,7 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>261</v>
@@ -3792,10 +3795,10 @@
         <v>2906</v>
       </c>
       <c r="G52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" t="s">
         <v>118</v>
-      </c>
-      <c r="H52" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>352</v>
@@ -3818,10 +3821,10 @@
         <v>3794</v>
       </c>
       <c r="G53" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" t="s">
         <v>120</v>
-      </c>
-      <c r="H53" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3832,7 +3835,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -3844,10 +3847,10 @@
         <v>44</v>
       </c>
       <c r="G54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" t="s">
         <v>122</v>
-      </c>
-      <c r="H54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,7 +3861,7 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>340</v>
@@ -3870,10 +3873,10 @@
         <v>2074</v>
       </c>
       <c r="G55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" t="s">
         <v>124</v>
-      </c>
-      <c r="H55" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3884,7 +3887,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>380</v>
@@ -3896,10 +3899,10 @@
         <v>2228</v>
       </c>
       <c r="G56" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" t="s">
         <v>126</v>
-      </c>
-      <c r="H56" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3910,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>429</v>
@@ -3922,10 +3925,10 @@
         <v>2536</v>
       </c>
       <c r="G57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" t="s">
         <v>128</v>
-      </c>
-      <c r="H57" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,7 +3939,7 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>12</v>
@@ -3948,10 +3951,10 @@
         <v>176</v>
       </c>
       <c r="G58" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" t="s">
         <v>130</v>
-      </c>
-      <c r="H58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3962,7 +3965,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>19</v>
@@ -3974,10 +3977,10 @@
         <v>218</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3988,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>27</v>
@@ -4000,10 +4003,10 @@
         <v>230</v>
       </c>
       <c r="G60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" t="s">
         <v>133</v>
-      </c>
-      <c r="H60" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4014,7 +4017,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>39</v>
@@ -4026,10 +4029,10 @@
         <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>48</v>
@@ -4052,10 +4055,10 @@
         <v>412</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,7 +4069,7 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>184</v>
@@ -4078,10 +4081,10 @@
         <v>1398</v>
       </c>
       <c r="G63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" t="s">
         <v>137</v>
-      </c>
-      <c r="H63" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4092,7 +4095,7 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>70</v>
@@ -4104,10 +4107,10 @@
         <v>442</v>
       </c>
       <c r="G64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" t="s">
         <v>139</v>
-      </c>
-      <c r="H64" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4118,7 +4121,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>80</v>
@@ -4130,10 +4133,10 @@
         <v>490</v>
       </c>
       <c r="G65" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" t="s">
         <v>141</v>
-      </c>
-      <c r="H65" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>116</v>
@@ -4156,10 +4159,10 @@
         <v>786</v>
       </c>
       <c r="G66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" t="s">
         <v>143</v>
-      </c>
-      <c r="H66" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4170,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67">
         <v>47</v>
@@ -4182,10 +4185,10 @@
         <v>500</v>
       </c>
       <c r="G67" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" t="s">
         <v>145</v>
-      </c>
-      <c r="H67" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4196,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68">
         <v>66</v>
@@ -4208,10 +4211,10 @@
         <v>744</v>
       </c>
       <c r="G68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" t="s">
         <v>147</v>
-      </c>
-      <c r="H68" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69">
         <v>79</v>
@@ -4234,10 +4237,10 @@
         <v>862</v>
       </c>
       <c r="G69" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" t="s">
         <v>149</v>
-      </c>
-      <c r="H69" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -4260,10 +4263,10 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" t="s">
         <v>151</v>
-      </c>
-      <c r="H70" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4274,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71">
         <v>67</v>
@@ -4286,10 +4289,10 @@
         <v>690</v>
       </c>
       <c r="G71" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" t="s">
         <v>153</v>
-      </c>
-      <c r="H71" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -4312,10 +4315,10 @@
         <v>820</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4326,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73">
         <v>77</v>
@@ -4338,10 +4341,10 @@
         <v>950</v>
       </c>
       <c r="G73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
         <v>156</v>
-      </c>
-      <c r="H73" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4352,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74">
         <v>150</v>
@@ -4364,10 +4367,10 @@
         <v>1580</v>
       </c>
       <c r="G74" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" t="s">
         <v>158</v>
-      </c>
-      <c r="H74" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4378,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D75">
         <v>27</v>
@@ -4390,10 +4393,10 @@
         <v>1132</v>
       </c>
       <c r="G75" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" t="s">
         <v>160</v>
-      </c>
-      <c r="H75" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4404,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D76">
         <v>37</v>
@@ -4416,10 +4419,10 @@
         <v>1456</v>
       </c>
       <c r="G76" t="s">
+        <v>161</v>
+      </c>
+      <c r="H76" t="s">
         <v>162</v>
-      </c>
-      <c r="H76" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4430,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>59</v>
@@ -4442,10 +4445,10 @@
         <v>1784</v>
       </c>
       <c r="G77" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" t="s">
         <v>164</v>
-      </c>
-      <c r="H77" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,7 +4459,7 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78">
         <v>12</v>
@@ -4468,10 +4471,10 @@
         <v>450</v>
       </c>
       <c r="G78" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" t="s">
         <v>166</v>
-      </c>
-      <c r="H78" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4482,7 +4485,7 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D79">
         <v>65</v>
@@ -4494,10 +4497,10 @@
         <v>550</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,7 +4511,7 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D80">
         <v>76</v>
@@ -4520,10 +4523,10 @@
         <v>612</v>
       </c>
       <c r="G80" t="s">
+        <v>168</v>
+      </c>
+      <c r="H80" t="s">
         <v>169</v>
-      </c>
-      <c r="H80" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,7 +4537,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81">
         <v>269</v>
@@ -4546,10 +4549,10 @@
         <v>1574</v>
       </c>
       <c r="G81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4560,7 +4563,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D82">
         <v>274</v>
@@ -4572,10 +4575,10 @@
         <v>1580</v>
       </c>
       <c r="G82" t="s">
+        <v>157</v>
+      </c>
+      <c r="H82" t="s">
         <v>158</v>
-      </c>
-      <c r="H82" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83">
         <v>9</v>
@@ -4598,10 +4601,10 @@
         <v>72</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4612,7 +4615,7 @@
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D84">
         <v>16</v>
@@ -4624,10 +4627,10 @@
         <v>118</v>
       </c>
       <c r="G84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4638,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D85">
         <v>136</v>
@@ -4650,10 +4653,10 @@
         <v>1574</v>
       </c>
       <c r="G85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4664,7 +4667,7 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D86">
         <v>227</v>
@@ -4676,10 +4679,10 @@
         <v>2438</v>
       </c>
       <c r="G86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H86" t="s">
         <v>175</v>
-      </c>
-      <c r="H86" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4690,7 +4693,7 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87">
         <v>389</v>
@@ -4702,10 +4705,10 @@
         <v>3742</v>
       </c>
       <c r="G87" t="s">
+        <v>176</v>
+      </c>
+      <c r="H87" t="s">
         <v>177</v>
-      </c>
-      <c r="H87" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4716,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D88">
         <v>155</v>
@@ -4728,10 +4731,10 @@
         <v>1900</v>
       </c>
       <c r="G88" t="s">
+        <v>178</v>
+      </c>
+      <c r="H88" t="s">
         <v>179</v>
-      </c>
-      <c r="H88" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4742,7 +4745,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D89">
         <v>171</v>
@@ -4754,10 +4757,10 @@
         <v>2028</v>
       </c>
       <c r="G89" t="s">
+        <v>180</v>
+      </c>
+      <c r="H89" t="s">
         <v>181</v>
-      </c>
-      <c r="H89" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4768,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D90">
         <v>175</v>
@@ -4780,10 +4783,10 @@
         <v>2114</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4794,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D91">
         <v>179</v>
@@ -4806,10 +4809,10 @@
         <v>2194</v>
       </c>
       <c r="G91" t="s">
+        <v>183</v>
+      </c>
+      <c r="H91" t="s">
         <v>184</v>
-      </c>
-      <c r="H91" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4820,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D92">
         <v>182</v>
@@ -4832,10 +4835,10 @@
         <v>2210</v>
       </c>
       <c r="G92" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" t="s">
         <v>185</v>
-      </c>
-      <c r="H92" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4846,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93">
         <v>187</v>
@@ -4858,10 +4861,10 @@
         <v>2220</v>
       </c>
       <c r="G93" t="s">
+        <v>186</v>
+      </c>
+      <c r="H93" t="s">
         <v>187</v>
-      </c>
-      <c r="H93" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,7 +4875,7 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D94">
         <v>188</v>
@@ -4884,10 +4887,10 @@
         <v>2226</v>
       </c>
       <c r="G94" t="s">
+        <v>187</v>
+      </c>
+      <c r="H94" t="s">
         <v>188</v>
-      </c>
-      <c r="H94" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4898,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D95">
         <v>313</v>
@@ -4910,10 +4913,10 @@
         <v>3676</v>
       </c>
       <c r="G95" t="s">
+        <v>189</v>
+      </c>
+      <c r="H95" t="s">
         <v>190</v>
-      </c>
-      <c r="H95" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4924,7 +4927,7 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D96">
         <v>16</v>
@@ -4936,10 +4939,10 @@
         <v>136</v>
       </c>
       <c r="G96" t="s">
+        <v>191</v>
+      </c>
+      <c r="H96" t="s">
         <v>192</v>
-      </c>
-      <c r="H96" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,7 +4953,7 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D97">
         <v>23</v>
@@ -4962,10 +4965,10 @@
         <v>172</v>
       </c>
       <c r="G97" t="s">
+        <v>193</v>
+      </c>
+      <c r="H97" t="s">
         <v>194</v>
-      </c>
-      <c r="H97" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
